--- a/examples/Python/Convergence/StationaryDiffusion/synthesis/test_synthesis_StationaryDiffusion_short.xlsx
+++ b/examples/Python/Convergence/StationaryDiffusion/synthesis/test_synthesis_StationaryDiffusion_short.xlsx
@@ -450,7 +450,7 @@
         <v>20000</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5446319580078125</v>
+        <v>0.5704150199890137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,7 +473,7 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1664919853210449</v>
+        <v>0.1509251594543457</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,7 +496,7 @@
         <v>80000</v>
       </c>
       <c r="G4" t="n">
-        <v>2.076117038726807</v>
+        <v>2.053256988525391</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,7 +519,7 @@
         <v>800</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06535887718200684</v>
+        <v>0.04685783386230469</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,7 +542,7 @@
         <v>320000</v>
       </c>
       <c r="G6" t="n">
-        <v>9.758830070495605</v>
+        <v>9.754637956619263</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,7 +565,7 @@
         <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01290202140808105</v>
+        <v>0.01299595832824707</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,7 +588,7 @@
         <v>2500</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220889091491699</v>
+        <v>0.1078310012817383</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,7 +611,7 @@
         <v>40000</v>
       </c>
       <c r="G9" t="n">
-        <v>1.286300897598267</v>
+        <v>1.276360988616943</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,7 +634,7 @@
         <v>160000</v>
       </c>
       <c r="G10" t="n">
-        <v>6.344155073165894</v>
+        <v>5.714885950088501</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,7 +657,7 @@
         <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3826830387115479</v>
+        <v>0.3073081970214844</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -680,7 +680,7 @@
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04188990592956543</v>
+        <v>0.01186394691467285</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -703,7 +703,7 @@
         <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03928089141845703</v>
+        <v>0.03953409194946289</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -726,7 +726,7 @@
         <v>80000</v>
       </c>
       <c r="G14" t="n">
-        <v>12.87721920013428</v>
+        <v>14.33312797546387</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -749,7 +749,7 @@
         <v>320000</v>
       </c>
       <c r="G15" t="n">
-        <v>88.93167400360107</v>
+        <v>99.24435091018677</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -772,7 +772,7 @@
         <v>20000</v>
       </c>
       <c r="G16" t="n">
-        <v>2.135025024414062</v>
+        <v>2.313521146774292</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -795,7 +795,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01937103271484375</v>
+        <v>0.01349592208862305</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -818,7 +818,7 @@
         <v>800</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07358193397521973</v>
+        <v>0.08600306510925293</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -841,7 +841,7 @@
         <v>5000</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4057619571685791</v>
+        <v>0.4214069843292236</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -864,7 +864,7 @@
         <v>6422</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6468000411987305</v>
+        <v>0.6422049999237061</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -887,7 +887,7 @@
         <v>25872</v>
       </c>
       <c r="G21" t="n">
-        <v>4.207299947738647</v>
+        <v>3.964146852493286</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -910,7 +910,7 @@
         <v>934</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0953528881072998</v>
+        <v>0.09005188941955566</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -933,7 +933,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01226401329040527</v>
+        <v>0.01261591911315918</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -956,7 +956,7 @@
         <v>224</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03071808815002441</v>
+        <v>0.03083395957946777</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -979,7 +979,7 @@
         <v>224</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04498815536499023</v>
+        <v>0.02793502807617188</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1002,7 +1002,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0140080451965332</v>
+        <v>0.0130620002746582</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1025,7 +1025,7 @@
         <v>934</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08423399925231934</v>
+        <v>0.06688213348388672</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1048,7 +1048,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01334404945373535</v>
+        <v>0.01235103607177734</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1071,7 +1071,7 @@
         <v>5000</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1739721298217773</v>
+        <v>0.1533589363098145</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1094,7 +1094,7 @@
         <v>80000</v>
       </c>
       <c r="G30" t="n">
-        <v>2.233613014221191</v>
+        <v>2.0609290599823</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1117,7 +1117,7 @@
         <v>20000</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5123910903930664</v>
+        <v>0.493441104888916</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1140,7 +1140,7 @@
         <v>800</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04956889152526855</v>
+        <v>0.03567218780517578</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1163,7 +1163,7 @@
         <v>320000</v>
       </c>
       <c r="G33" t="n">
-        <v>10.56879687309265</v>
+        <v>9.741075038909912</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1186,7 +1186,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02034306526184082</v>
+        <v>0.01178598403930664</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1209,7 +1209,7 @@
         <v>4300</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1586940288543701</v>
+        <v>0.1100990772247314</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1232,7 +1232,7 @@
         <v>680</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04728412628173828</v>
+        <v>0.04321789741516113</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1255,7 +1255,7 @@
         <v>69200</v>
       </c>
       <c r="G37" t="n">
-        <v>2.404366970062256</v>
+        <v>1.743595838546753</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1278,7 +1278,7 @@
         <v>17200</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5565400123596191</v>
+        <v>0.4172549247741699</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1301,7 +1301,7 @@
         <v>48000</v>
       </c>
       <c r="G39" t="n">
-        <v>25.0909218788147</v>
+        <v>25.06800580024719</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1324,7 +1324,7 @@
         <v>162000</v>
       </c>
       <c r="G40" t="n">
-        <v>178.8491489887238</v>
+        <v>179.1279811859131</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1347,7 +1347,7 @@
         <v>6000</v>
       </c>
       <c r="G41" t="n">
-        <v>1.282193899154663</v>
+        <v>1.26123309135437</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1370,7 +1370,7 @@
         <v>750</v>
       </c>
       <c r="G42" t="n">
-        <v>0.113008975982666</v>
+        <v>0.1114749908447266</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1393,7 +1393,7 @@
         <v>16834</v>
       </c>
       <c r="G43" t="n">
-        <v>6.481223821640015</v>
+        <v>6.47984504699707</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1416,7 +1416,7 @@
         <v>270</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04925704002380371</v>
+        <v>0.04830098152160645</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1439,7 +1439,7 @@
         <v>2081</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4297311305999756</v>
+        <v>0.406527042388916</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1462,7 +1462,7 @@
         <v>4077</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8440427780151367</v>
+        <v>0.842940092086792</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1485,7 +1485,7 @@
         <v>7629</v>
       </c>
       <c r="G47" t="n">
-        <v>2.005228042602539</v>
+        <v>2.003684997558594</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1508,7 +1508,7 @@
         <v>25872</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7702078819274902</v>
+        <v>0.7498798370361328</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1531,7 +1531,7 @@
         <v>224</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01677894592285156</v>
+        <v>0.03198504447937012</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1554,7 +1554,7 @@
         <v>6422</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2081758975982666</v>
+        <v>0.1816260814666748</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1577,7 +1577,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2235350608825684</v>
+        <v>0.01298999786376953</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1600,7 +1600,7 @@
         <v>934</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04894900321960449</v>
+        <v>0.05528092384338379</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1623,7 +1623,7 @@
         <v>5000</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2770760059356689</v>
+        <v>0.2879509925842285</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1646,7 +1646,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02251410484313965</v>
+        <v>0.01412296295166016</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1669,7 +1669,7 @@
         <v>800</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05497384071350098</v>
+        <v>0.07988715171813965</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1692,7 +1692,7 @@
         <v>750</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03650188446044922</v>
+        <v>0.0333409309387207</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1715,7 +1715,7 @@
         <v>48000</v>
       </c>
       <c r="G57" t="n">
-        <v>5.826540946960449</v>
+        <v>5.730488061904907</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1738,7 +1738,7 @@
         <v>6000</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3001010417938232</v>
+        <v>0.2275040149688721</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1761,7 +1761,7 @@
         <v>162000</v>
       </c>
       <c r="G59" t="n">
-        <v>53.59704089164734</v>
+        <v>53.30519104003906</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1784,7 +1784,7 @@
         <v>125</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01871609687805176</v>
+        <v>0.0175929069519043</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1807,7 +1807,7 @@
         <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>0.09244608879089355</v>
+        <v>0.06056118011474609</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1830,7 +1830,7 @@
         <v>27000</v>
       </c>
       <c r="G62" t="n">
-        <v>3.630842924118042</v>
+        <v>3.676536083221436</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1853,7 +1853,7 @@
         <v>8000</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5306060314178467</v>
+        <v>0.5459098815917969</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1876,7 +1876,7 @@
         <v>40000</v>
       </c>
       <c r="G64" t="n">
-        <v>1.350594997406006</v>
+        <v>1.279531002044678</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1899,7 +1899,7 @@
         <v>25</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01397991180419922</v>
+        <v>0.01209402084350586</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1922,7 +1922,7 @@
         <v>400</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02575802803039551</v>
+        <v>0.04854607582092285</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1945,7 +1945,7 @@
         <v>2500</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08929300308227539</v>
+        <v>0.1074941158294678</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1968,7 +1968,7 @@
         <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3214180469512939</v>
+        <v>0.3114171028137207</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1991,7 +1991,7 @@
         <v>160000</v>
       </c>
       <c r="G69" t="n">
-        <v>6.662341117858887</v>
+        <v>5.765976905822754</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2014,7 +2014,7 @@
         <v>270</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02098798751831055</v>
+        <v>0.01941585540771484</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2037,7 +2037,7 @@
         <v>7629</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3352818489074707</v>
+        <v>0.3508529663085938</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2060,7 +2060,7 @@
         <v>16834</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9986889362335205</v>
+        <v>1.050707101821899</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2083,7 +2083,7 @@
         <v>2081</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1144609451293945</v>
+        <v>0.08148503303527832</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2106,7 +2106,7 @@
         <v>4077</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1675269603729248</v>
+        <v>0.1732320785522461</v>
       </c>
     </row>
   </sheetData>
